--- a/data/fake_hr_data.xlsx
+++ b/data/fake_hr_data.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\AUP Automata\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2543E797-0148-4240-84B3-163081E1218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -7531,8 +7538,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7595,13 +7602,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7639,7 +7654,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -7673,6 +7688,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7707,9 +7723,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7882,14 +7899,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E823"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D23924C-B02B-4AEC-95AD-2072230DDDE2}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E823"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7906,7 +7935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7923,7 +7952,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7940,7 +7969,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7957,7 +7986,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7974,7 +8003,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7991,7 +8020,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8008,7 +8037,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8025,7 +8054,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8042,7 +8071,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8059,7 +8088,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8076,7 +8105,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8093,7 +8122,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -8110,7 +8139,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -8127,7 +8156,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -8144,7 +8173,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -8161,7 +8190,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -8178,7 +8207,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -8195,7 +8224,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -8212,7 +8241,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -8229,7 +8258,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -8246,7 +8275,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -8263,7 +8292,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -8280,7 +8309,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8297,7 +8326,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -8314,7 +8343,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -8331,7 +8360,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -8348,7 +8377,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -8365,7 +8394,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -8382,7 +8411,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -8399,7 +8428,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8416,7 +8445,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -8433,7 +8462,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -8450,7 +8479,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -8467,7 +8496,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -8484,7 +8513,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -8501,7 +8530,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8518,7 +8547,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -8535,7 +8564,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8552,7 +8581,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -8569,7 +8598,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -8586,7 +8615,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -8603,7 +8632,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -8620,7 +8649,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -8637,7 +8666,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -8654,7 +8683,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -8671,7 +8700,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -8688,7 +8717,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -8705,7 +8734,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -8722,7 +8751,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8739,7 +8768,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -8756,7 +8785,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -8773,7 +8802,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -8790,7 +8819,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -8807,7 +8836,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -8824,7 +8853,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -8841,7 +8870,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -8858,7 +8887,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -8875,7 +8904,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -8892,7 +8921,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -8909,7 +8938,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -8926,7 +8955,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -8943,7 +8972,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -8960,7 +8989,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -8977,7 +9006,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -8994,7 +9023,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -9011,7 +9040,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -9028,7 +9057,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -9045,7 +9074,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -9062,7 +9091,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -9079,7 +9108,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -9096,7 +9125,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -9113,7 +9142,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -9130,7 +9159,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -9147,7 +9176,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -9164,7 +9193,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -9181,7 +9210,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -9198,7 +9227,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -9215,7 +9244,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -9232,7 +9261,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -9249,7 +9278,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -9266,7 +9295,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -9283,7 +9312,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -9300,7 +9329,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -9317,7 +9346,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -9334,7 +9363,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -9351,7 +9380,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -9368,7 +9397,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -9385,7 +9414,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -9402,7 +9431,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -9419,7 +9448,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -9436,7 +9465,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -9453,7 +9482,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -9470,7 +9499,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -9487,7 +9516,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -9504,7 +9533,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -9521,7 +9550,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -9538,7 +9567,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -9555,7 +9584,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -9572,7 +9601,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -9589,7 +9618,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -9606,7 +9635,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -9623,7 +9652,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -9640,7 +9669,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -9657,7 +9686,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -9674,7 +9703,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -9691,7 +9720,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -9708,7 +9737,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -9725,7 +9754,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -9742,7 +9771,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -9759,7 +9788,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -9776,7 +9805,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -9793,7 +9822,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -9810,7 +9839,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -9827,7 +9856,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -9844,7 +9873,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -9861,7 +9890,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -9878,7 +9907,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -9895,7 +9924,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -9912,7 +9941,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -9929,7 +9958,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -9946,7 +9975,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -9963,7 +9992,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -9980,7 +10009,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -9997,7 +10026,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -10014,7 +10043,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -10031,7 +10060,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -10048,7 +10077,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -10065,7 +10094,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -10082,7 +10111,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -10099,7 +10128,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -10116,7 +10145,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -10133,7 +10162,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -10150,7 +10179,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -10167,7 +10196,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -10184,7 +10213,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -10201,7 +10230,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -10218,7 +10247,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -10235,7 +10264,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -10252,7 +10281,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -10269,7 +10298,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -10286,7 +10315,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -10303,7 +10332,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -10320,7 +10349,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -10337,7 +10366,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -10354,7 +10383,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -10371,7 +10400,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -10388,7 +10417,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -10405,7 +10434,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -10422,7 +10451,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -10439,7 +10468,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -10456,7 +10485,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -10473,7 +10502,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -10490,7 +10519,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -10507,7 +10536,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -10524,7 +10553,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -10541,7 +10570,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -10558,7 +10587,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -10575,7 +10604,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -10592,7 +10621,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -10609,7 +10638,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -10626,7 +10655,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -10643,7 +10672,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -10660,7 +10689,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -10677,7 +10706,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -10694,7 +10723,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -10711,7 +10740,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -10728,7 +10757,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -10745,7 +10774,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -10762,7 +10791,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -10779,7 +10808,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -10796,7 +10825,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -10813,7 +10842,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -10830,7 +10859,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -10847,7 +10876,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -10864,7 +10893,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -10881,7 +10910,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -10898,7 +10927,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -10915,7 +10944,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -10932,7 +10961,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -10949,7 +10978,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -10966,7 +10995,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -10983,7 +11012,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -11000,7 +11029,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -11017,7 +11046,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -11034,7 +11063,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -11051,7 +11080,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -11068,7 +11097,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -11085,7 +11114,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -11102,7 +11131,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -11119,7 +11148,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -11136,7 +11165,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -11153,7 +11182,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -11170,7 +11199,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -11187,7 +11216,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -11204,7 +11233,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -11221,7 +11250,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -11238,7 +11267,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -11255,7 +11284,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -11272,7 +11301,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -11289,7 +11318,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -11306,7 +11335,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -11323,7 +11352,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -11340,7 +11369,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -11357,7 +11386,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -11374,7 +11403,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -11391,7 +11420,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -11408,7 +11437,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -11425,7 +11454,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -11442,7 +11471,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -11459,7 +11488,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -11476,7 +11505,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -11493,7 +11522,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -11510,7 +11539,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -11527,7 +11556,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -11544,7 +11573,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -11561,7 +11590,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -11578,7 +11607,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -11595,7 +11624,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -11612,7 +11641,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -11629,7 +11658,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -11646,7 +11675,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -11663,7 +11692,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -11680,7 +11709,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -11697,7 +11726,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -11714,7 +11743,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -11731,7 +11760,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -11748,7 +11777,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -11765,7 +11794,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -11782,7 +11811,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -11799,7 +11828,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -11816,7 +11845,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -11833,7 +11862,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -11850,7 +11879,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -11867,7 +11896,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -11884,7 +11913,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -11901,7 +11930,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -11918,7 +11947,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -11935,7 +11964,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -11952,7 +11981,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -11969,7 +11998,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -11986,7 +12015,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -12003,7 +12032,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -12020,7 +12049,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -12037,7 +12066,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -12054,7 +12083,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -12071,7 +12100,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -12088,7 +12117,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -12105,7 +12134,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -12122,7 +12151,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -12139,7 +12168,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -12156,7 +12185,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -12173,7 +12202,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -12190,7 +12219,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -12207,7 +12236,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -12224,7 +12253,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -12241,7 +12270,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -12258,7 +12287,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -12275,7 +12304,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -12292,7 +12321,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -12309,7 +12338,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -12326,7 +12355,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -12343,7 +12372,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -12360,7 +12389,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -12377,7 +12406,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>268</v>
       </c>
@@ -12394,7 +12423,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>269</v>
       </c>
@@ -12411,7 +12440,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -12428,7 +12457,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -12445,7 +12474,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>272</v>
       </c>
@@ -12462,7 +12491,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -12479,7 +12508,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -12496,7 +12525,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -12513,7 +12542,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -12530,7 +12559,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -12547,7 +12576,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -12564,7 +12593,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -12581,7 +12610,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -12598,7 +12627,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -12615,7 +12644,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -12632,7 +12661,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -12649,7 +12678,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -12666,7 +12695,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -12683,7 +12712,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -12700,7 +12729,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -12717,7 +12746,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -12734,7 +12763,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>289</v>
       </c>
@@ -12751,7 +12780,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>290</v>
       </c>
@@ -12768,7 +12797,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>291</v>
       </c>
@@ -12785,7 +12814,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>292</v>
       </c>
@@ -12802,7 +12831,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -12819,7 +12848,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -12836,7 +12865,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -12853,7 +12882,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>296</v>
       </c>
@@ -12870,7 +12899,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -12887,7 +12916,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -12904,7 +12933,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -12921,7 +12950,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -12938,7 +12967,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -12955,7 +12984,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -12972,7 +13001,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -12989,7 +13018,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -13006,7 +13035,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -13023,7 +13052,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -13040,7 +13069,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -13057,7 +13086,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -13074,7 +13103,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -13091,7 +13120,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -13108,7 +13137,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -13125,7 +13154,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>312</v>
       </c>
@@ -13142,7 +13171,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>313</v>
       </c>
@@ -13159,7 +13188,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -13176,7 +13205,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>315</v>
       </c>
@@ -13193,7 +13222,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>316</v>
       </c>
@@ -13210,7 +13239,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>317</v>
       </c>
@@ -13227,7 +13256,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>318</v>
       </c>
@@ -13244,7 +13273,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>319</v>
       </c>
@@ -13261,7 +13290,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>320</v>
       </c>
@@ -13278,7 +13307,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -13295,7 +13324,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>322</v>
       </c>
@@ -13312,7 +13341,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>323</v>
       </c>
@@ -13329,7 +13358,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -13346,7 +13375,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>325</v>
       </c>
@@ -13363,7 +13392,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>326</v>
       </c>
@@ -13380,7 +13409,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>327</v>
       </c>
@@ -13397,7 +13426,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -13414,7 +13443,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>329</v>
       </c>
@@ -13431,7 +13460,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -13448,7 +13477,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>331</v>
       </c>
@@ -13465,7 +13494,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -13482,7 +13511,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -13499,7 +13528,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>334</v>
       </c>
@@ -13516,7 +13545,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>335</v>
       </c>
@@ -13533,7 +13562,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -13550,7 +13579,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>337</v>
       </c>
@@ -13567,7 +13596,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>338</v>
       </c>
@@ -13584,7 +13613,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>339</v>
       </c>
@@ -13601,7 +13630,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>340</v>
       </c>
@@ -13618,7 +13647,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>341</v>
       </c>
@@ -13635,7 +13664,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>342</v>
       </c>
@@ -13652,7 +13681,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>343</v>
       </c>
@@ -13669,7 +13698,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>344</v>
       </c>
@@ -13686,7 +13715,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>345</v>
       </c>
@@ -13703,7 +13732,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>346</v>
       </c>
@@ -13720,7 +13749,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>347</v>
       </c>
@@ -13737,7 +13766,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -13754,7 +13783,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -13771,7 +13800,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>350</v>
       </c>
@@ -13788,7 +13817,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>351</v>
       </c>
@@ -13805,7 +13834,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>352</v>
       </c>
@@ -13822,7 +13851,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>353</v>
       </c>
@@ -13839,7 +13868,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>354</v>
       </c>
@@ -13856,7 +13885,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>355</v>
       </c>
@@ -13873,7 +13902,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>356</v>
       </c>
@@ -13890,7 +13919,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -13907,7 +13936,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>358</v>
       </c>
@@ -13924,7 +13953,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>359</v>
       </c>
@@ -13941,7 +13970,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>360</v>
       </c>
@@ -13958,7 +13987,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>361</v>
       </c>
@@ -13975,7 +14004,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>362</v>
       </c>
@@ -13992,7 +14021,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>363</v>
       </c>
@@ -14009,7 +14038,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>364</v>
       </c>
@@ -14026,7 +14055,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>365</v>
       </c>
@@ -14043,7 +14072,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>366</v>
       </c>
@@ -14060,7 +14089,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>367</v>
       </c>
@@ -14077,7 +14106,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>368</v>
       </c>
@@ -14094,7 +14123,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -14111,7 +14140,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>370</v>
       </c>
@@ -14128,7 +14157,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>371</v>
       </c>
@@ -14145,7 +14174,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>372</v>
       </c>
@@ -14162,7 +14191,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -14179,7 +14208,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -14196,7 +14225,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -14213,7 +14242,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -14230,7 +14259,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -14247,7 +14276,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -14264,7 +14293,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -14281,7 +14310,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -14298,7 +14327,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -14315,7 +14344,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -14332,7 +14361,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -14349,7 +14378,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -14366,7 +14395,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -14383,7 +14412,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -14400,7 +14429,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>387</v>
       </c>
@@ -14417,7 +14446,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -14434,7 +14463,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>389</v>
       </c>
@@ -14451,7 +14480,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>390</v>
       </c>
@@ -14468,7 +14497,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>391</v>
       </c>
@@ -14485,7 +14514,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -14502,7 +14531,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>393</v>
       </c>
@@ -14519,7 +14548,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>394</v>
       </c>
@@ -14536,7 +14565,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>395</v>
       </c>
@@ -14553,7 +14582,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>396</v>
       </c>
@@ -14570,7 +14599,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -14587,7 +14616,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -14604,7 +14633,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -14621,7 +14650,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -14638,7 +14667,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -14655,7 +14684,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -14672,7 +14701,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -14689,7 +14718,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -14706,7 +14735,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -14723,7 +14752,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -14740,7 +14769,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -14757,7 +14786,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -14774,7 +14803,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -14791,7 +14820,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -14808,7 +14837,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>411</v>
       </c>
@@ -14825,7 +14854,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>412</v>
       </c>
@@ -14842,7 +14871,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>413</v>
       </c>
@@ -14859,7 +14888,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>414</v>
       </c>
@@ -14876,7 +14905,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>415</v>
       </c>
@@ -14893,7 +14922,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>416</v>
       </c>
@@ -14910,7 +14939,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>417</v>
       </c>
@@ -14927,7 +14956,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>418</v>
       </c>
@@ -14944,7 +14973,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>419</v>
       </c>
@@ -14961,7 +14990,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>420</v>
       </c>
@@ -14978,7 +15007,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>421</v>
       </c>
@@ -14995,7 +15024,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>422</v>
       </c>
@@ -15012,7 +15041,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>423</v>
       </c>
@@ -15029,7 +15058,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>424</v>
       </c>
@@ -15046,7 +15075,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>425</v>
       </c>
@@ -15063,7 +15092,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>426</v>
       </c>
@@ -15080,7 +15109,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>427</v>
       </c>
@@ -15097,7 +15126,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>428</v>
       </c>
@@ -15114,7 +15143,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>429</v>
       </c>
@@ -15131,7 +15160,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>430</v>
       </c>
@@ -15148,7 +15177,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>431</v>
       </c>
@@ -15165,7 +15194,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>432</v>
       </c>
@@ -15182,7 +15211,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>433</v>
       </c>
@@ -15199,7 +15228,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>434</v>
       </c>
@@ -15216,7 +15245,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>435</v>
       </c>
@@ -15233,7 +15262,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>436</v>
       </c>
@@ -15250,7 +15279,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>437</v>
       </c>
@@ -15267,7 +15296,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>438</v>
       </c>
@@ -15284,7 +15313,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>439</v>
       </c>
@@ -15301,7 +15330,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>440</v>
       </c>
@@ -15318,7 +15347,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>441</v>
       </c>
@@ -15335,7 +15364,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>442</v>
       </c>
@@ -15352,7 +15381,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>443</v>
       </c>
@@ -15369,7 +15398,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>444</v>
       </c>
@@ -15386,7 +15415,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>445</v>
       </c>
@@ -15403,7 +15432,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>446</v>
       </c>
@@ -15420,7 +15449,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>447</v>
       </c>
@@ -15437,7 +15466,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>448</v>
       </c>
@@ -15454,7 +15483,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>449</v>
       </c>
@@ -15471,7 +15500,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>450</v>
       </c>
@@ -15488,7 +15517,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>451</v>
       </c>
@@ -15505,7 +15534,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>452</v>
       </c>
@@ -15522,7 +15551,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>453</v>
       </c>
@@ -15539,7 +15568,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>454</v>
       </c>
@@ -15556,7 +15585,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>455</v>
       </c>
@@ -15573,7 +15602,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>456</v>
       </c>
@@ -15590,7 +15619,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>457</v>
       </c>
@@ -15607,7 +15636,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>458</v>
       </c>
@@ -15624,7 +15653,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>459</v>
       </c>
@@ -15641,7 +15670,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>460</v>
       </c>
@@ -15658,7 +15687,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>461</v>
       </c>
@@ -15675,7 +15704,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>462</v>
       </c>
@@ -15692,7 +15721,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>463</v>
       </c>
@@ -15709,7 +15738,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>464</v>
       </c>
@@ -15726,7 +15755,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>465</v>
       </c>
@@ -15743,7 +15772,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>466</v>
       </c>
@@ -15760,7 +15789,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>467</v>
       </c>
@@ -15777,7 +15806,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>468</v>
       </c>
@@ -15794,7 +15823,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>469</v>
       </c>
@@ -15811,7 +15840,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>470</v>
       </c>
@@ -15828,7 +15857,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>471</v>
       </c>
@@ -15845,7 +15874,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>472</v>
       </c>
@@ -15862,7 +15891,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>473</v>
       </c>
@@ -15879,7 +15908,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>474</v>
       </c>
@@ -15896,7 +15925,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>475</v>
       </c>
@@ -15913,7 +15942,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>476</v>
       </c>
@@ -15930,7 +15959,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>477</v>
       </c>
@@ -15947,7 +15976,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>478</v>
       </c>
@@ -15964,7 +15993,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>479</v>
       </c>
@@ -15981,7 +16010,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>480</v>
       </c>
@@ -15998,7 +16027,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>481</v>
       </c>
@@ -16015,7 +16044,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>482</v>
       </c>
@@ -16032,7 +16061,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>483</v>
       </c>
@@ -16049,7 +16078,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>484</v>
       </c>
@@ -16066,7 +16095,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>485</v>
       </c>
@@ -16083,7 +16112,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>486</v>
       </c>
@@ -16100,7 +16129,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>487</v>
       </c>
@@ -16117,7 +16146,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>488</v>
       </c>
@@ -16134,7 +16163,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>489</v>
       </c>
@@ -16151,7 +16180,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>490</v>
       </c>
@@ -16168,7 +16197,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>491</v>
       </c>
@@ -16185,7 +16214,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>492</v>
       </c>
@@ -16202,7 +16231,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>493</v>
       </c>
@@ -16219,7 +16248,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>494</v>
       </c>
@@ -16236,7 +16265,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>495</v>
       </c>
@@ -16253,7 +16282,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>496</v>
       </c>
@@ -16270,7 +16299,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>497</v>
       </c>
@@ -16287,7 +16316,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>498</v>
       </c>
@@ -16304,7 +16333,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>499</v>
       </c>
@@ -16321,7 +16350,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>500</v>
       </c>
@@ -16338,7 +16367,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>501</v>
       </c>
@@ -16355,7 +16384,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>502</v>
       </c>
@@ -16372,7 +16401,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>503</v>
       </c>
@@ -16389,7 +16418,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>504</v>
       </c>
@@ -16406,7 +16435,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>505</v>
       </c>
@@ -16423,7 +16452,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>506</v>
       </c>
@@ -16440,7 +16469,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>507</v>
       </c>
@@ -16457,7 +16486,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>508</v>
       </c>
@@ -16474,7 +16503,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>509</v>
       </c>
@@ -16491,7 +16520,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>510</v>
       </c>
@@ -16508,7 +16537,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>511</v>
       </c>
@@ -16525,7 +16554,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>512</v>
       </c>
@@ -16542,7 +16571,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>513</v>
       </c>
@@ -16559,7 +16588,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>514</v>
       </c>
@@ -16576,7 +16605,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>515</v>
       </c>
@@ -16593,7 +16622,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>516</v>
       </c>
@@ -16610,7 +16639,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>517</v>
       </c>
@@ -16627,7 +16656,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>518</v>
       </c>
@@ -16644,7 +16673,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>519</v>
       </c>
@@ -16661,7 +16690,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>520</v>
       </c>
@@ -16678,7 +16707,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>521</v>
       </c>
@@ -16695,7 +16724,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>522</v>
       </c>
@@ -16712,7 +16741,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>523</v>
       </c>
@@ -16729,7 +16758,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>524</v>
       </c>
@@ -16746,7 +16775,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>525</v>
       </c>
@@ -16763,7 +16792,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>526</v>
       </c>
@@ -16780,7 +16809,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>527</v>
       </c>
@@ -16797,7 +16826,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>528</v>
       </c>
@@ -16814,7 +16843,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>529</v>
       </c>
@@ -16831,7 +16860,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>530</v>
       </c>
@@ -16848,7 +16877,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>531</v>
       </c>
@@ -16865,7 +16894,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>532</v>
       </c>
@@ -16882,7 +16911,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>533</v>
       </c>
@@ -16899,7 +16928,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>534</v>
       </c>
@@ -16916,7 +16945,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>535</v>
       </c>
@@ -16933,7 +16962,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>536</v>
       </c>
@@ -16950,7 +16979,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>537</v>
       </c>
@@ -16967,7 +16996,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>538</v>
       </c>
@@ -16984,7 +17013,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>539</v>
       </c>
@@ -17001,7 +17030,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>540</v>
       </c>
@@ -17018,7 +17047,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>541</v>
       </c>
@@ -17035,7 +17064,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>542</v>
       </c>
@@ -17052,7 +17081,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>543</v>
       </c>
@@ -17069,7 +17098,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>544</v>
       </c>
@@ -17086,7 +17115,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>545</v>
       </c>
@@ -17103,7 +17132,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>546</v>
       </c>
@@ -17120,7 +17149,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>547</v>
       </c>
@@ -17137,7 +17166,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>548</v>
       </c>
@@ -17154,7 +17183,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>549</v>
       </c>
@@ -17171,7 +17200,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>550</v>
       </c>
@@ -17188,7 +17217,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>551</v>
       </c>
@@ -17205,7 +17234,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>552</v>
       </c>
@@ -17222,7 +17251,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>553</v>
       </c>
@@ -17239,7 +17268,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>554</v>
       </c>
@@ -17256,7 +17285,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>555</v>
       </c>
@@ -17273,7 +17302,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>556</v>
       </c>
@@ -17290,7 +17319,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>557</v>
       </c>
@@ -17307,7 +17336,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>558</v>
       </c>
@@ -17324,7 +17353,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>559</v>
       </c>
@@ -17341,7 +17370,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>560</v>
       </c>
@@ -17358,7 +17387,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>561</v>
       </c>
@@ -17375,7 +17404,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>562</v>
       </c>
@@ -17392,7 +17421,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>563</v>
       </c>
@@ -17409,7 +17438,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>564</v>
       </c>
@@ -17426,7 +17455,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>565</v>
       </c>
@@ -17443,7 +17472,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>566</v>
       </c>
@@ -17460,7 +17489,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>567</v>
       </c>
@@ -17477,7 +17506,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>568</v>
       </c>
@@ -17494,7 +17523,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>569</v>
       </c>
@@ -17511,7 +17540,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>570</v>
       </c>
@@ -17528,7 +17557,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>571</v>
       </c>
@@ -17545,7 +17574,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>572</v>
       </c>
@@ -17562,7 +17591,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>573</v>
       </c>
@@ -17579,7 +17608,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>574</v>
       </c>
@@ -17596,7 +17625,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>575</v>
       </c>
@@ -17613,7 +17642,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>576</v>
       </c>
@@ -17630,7 +17659,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>577</v>
       </c>
@@ -17647,7 +17676,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>578</v>
       </c>
@@ -17664,7 +17693,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>579</v>
       </c>
@@ -17681,7 +17710,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>580</v>
       </c>
@@ -17698,7 +17727,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>581</v>
       </c>
@@ -17715,7 +17744,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>582</v>
       </c>
@@ -17732,7 +17761,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>583</v>
       </c>
@@ -17749,7 +17778,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>584</v>
       </c>
@@ -17766,7 +17795,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>585</v>
       </c>
@@ -17783,7 +17812,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>586</v>
       </c>
@@ -17800,7 +17829,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>587</v>
       </c>
@@ -17817,7 +17846,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>588</v>
       </c>
@@ -17834,7 +17863,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>589</v>
       </c>
@@ -17851,7 +17880,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>590</v>
       </c>
@@ -17868,7 +17897,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>591</v>
       </c>
@@ -17885,7 +17914,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>592</v>
       </c>
@@ -17902,7 +17931,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>593</v>
       </c>
@@ -17919,7 +17948,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>594</v>
       </c>
@@ -17936,7 +17965,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>595</v>
       </c>
@@ -17953,7 +17982,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>596</v>
       </c>
@@ -17970,7 +17999,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>597</v>
       </c>
@@ -17987,7 +18016,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>598</v>
       </c>
@@ -18004,7 +18033,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>599</v>
       </c>
@@ -18021,7 +18050,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>600</v>
       </c>
@@ -18038,7 +18067,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>601</v>
       </c>
@@ -18055,7 +18084,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>602</v>
       </c>
@@ -18072,7 +18101,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>603</v>
       </c>
@@ -18089,7 +18118,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>604</v>
       </c>
@@ -18106,7 +18135,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>605</v>
       </c>
@@ -18123,7 +18152,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>606</v>
       </c>
@@ -18140,7 +18169,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>607</v>
       </c>
@@ -18157,7 +18186,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>608</v>
       </c>
@@ -18174,7 +18203,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>609</v>
       </c>
@@ -18191,7 +18220,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>610</v>
       </c>
@@ -18208,7 +18237,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>611</v>
       </c>
@@ -18225,7 +18254,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>612</v>
       </c>
@@ -18242,7 +18271,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>613</v>
       </c>
@@ -18259,7 +18288,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>614</v>
       </c>
@@ -18276,7 +18305,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>615</v>
       </c>
@@ -18293,7 +18322,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>616</v>
       </c>
@@ -18310,7 +18339,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>617</v>
       </c>
@@ -18327,7 +18356,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>618</v>
       </c>
@@ -18344,7 +18373,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>619</v>
       </c>
@@ -18361,7 +18390,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>620</v>
       </c>
@@ -18378,7 +18407,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>621</v>
       </c>
@@ -18395,7 +18424,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>622</v>
       </c>
@@ -18412,7 +18441,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>623</v>
       </c>
@@ -18429,7 +18458,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>624</v>
       </c>
@@ -18446,7 +18475,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>625</v>
       </c>
@@ -18463,7 +18492,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>626</v>
       </c>
@@ -18480,7 +18509,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>627</v>
       </c>
@@ -18497,7 +18526,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>628</v>
       </c>
@@ -18514,7 +18543,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>629</v>
       </c>
@@ -18531,7 +18560,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>630</v>
       </c>
@@ -18548,7 +18577,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>631</v>
       </c>
@@ -18565,7 +18594,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>632</v>
       </c>
@@ -18582,7 +18611,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>633</v>
       </c>
@@ -18599,7 +18628,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>634</v>
       </c>
@@ -18616,7 +18645,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>635</v>
       </c>
@@ -18633,7 +18662,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>636</v>
       </c>
@@ -18650,7 +18679,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>637</v>
       </c>
@@ -18667,7 +18696,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>638</v>
       </c>
@@ -18684,7 +18713,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>639</v>
       </c>
@@ -18701,7 +18730,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>640</v>
       </c>
@@ -18718,7 +18747,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>641</v>
       </c>
@@ -18735,7 +18764,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>642</v>
       </c>
@@ -18752,7 +18781,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>643</v>
       </c>
@@ -18769,7 +18798,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>644</v>
       </c>
@@ -18786,7 +18815,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>645</v>
       </c>
@@ -18803,7 +18832,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>646</v>
       </c>
@@ -18820,7 +18849,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>647</v>
       </c>
@@ -18837,7 +18866,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>648</v>
       </c>
@@ -18854,7 +18883,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>649</v>
       </c>
@@ -18871,7 +18900,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>650</v>
       </c>
@@ -18888,7 +18917,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>651</v>
       </c>
@@ -18905,7 +18934,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>652</v>
       </c>
@@ -18922,7 +18951,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>653</v>
       </c>
@@ -18939,7 +18968,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>654</v>
       </c>
@@ -18956,7 +18985,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>655</v>
       </c>
@@ -18973,7 +19002,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>656</v>
       </c>
@@ -18990,7 +19019,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>657</v>
       </c>
@@ -19007,7 +19036,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>658</v>
       </c>
@@ -19024,7 +19053,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>659</v>
       </c>
@@ -19041,7 +19070,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>660</v>
       </c>
@@ -19058,7 +19087,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>661</v>
       </c>
@@ -19075,7 +19104,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>662</v>
       </c>
@@ -19092,7 +19121,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>663</v>
       </c>
@@ -19109,7 +19138,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>664</v>
       </c>
@@ -19126,7 +19155,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>665</v>
       </c>
@@ -19143,7 +19172,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>666</v>
       </c>
@@ -19160,7 +19189,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>667</v>
       </c>
@@ -19177,7 +19206,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>668</v>
       </c>
@@ -19194,7 +19223,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>669</v>
       </c>
@@ -19211,7 +19240,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>670</v>
       </c>
@@ -19228,7 +19257,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>671</v>
       </c>
@@ -19245,7 +19274,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>672</v>
       </c>
@@ -19262,7 +19291,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>673</v>
       </c>
@@ -19279,7 +19308,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>674</v>
       </c>
@@ -19296,7 +19325,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>675</v>
       </c>
@@ -19313,7 +19342,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>676</v>
       </c>
@@ -19330,7 +19359,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>677</v>
       </c>
@@ -19347,7 +19376,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>678</v>
       </c>
@@ -19364,7 +19393,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>679</v>
       </c>
@@ -19381,7 +19410,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>680</v>
       </c>
@@ -19398,7 +19427,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>681</v>
       </c>
@@ -19415,7 +19444,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>682</v>
       </c>
@@ -19432,7 +19461,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>683</v>
       </c>
@@ -19449,7 +19478,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>684</v>
       </c>
@@ -19466,7 +19495,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>685</v>
       </c>
@@ -19483,7 +19512,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>686</v>
       </c>
@@ -19500,7 +19529,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>687</v>
       </c>
@@ -19517,7 +19546,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>688</v>
       </c>
@@ -19534,7 +19563,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>689</v>
       </c>
@@ -19551,7 +19580,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>690</v>
       </c>
@@ -19568,7 +19597,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>691</v>
       </c>
@@ -19585,7 +19614,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>692</v>
       </c>
@@ -19602,7 +19631,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>693</v>
       </c>
@@ -19619,7 +19648,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>694</v>
       </c>
@@ -19636,7 +19665,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>695</v>
       </c>
@@ -19653,7 +19682,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>696</v>
       </c>
@@ -19670,7 +19699,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>697</v>
       </c>
@@ -19687,7 +19716,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>698</v>
       </c>
@@ -19704,7 +19733,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>699</v>
       </c>
@@ -19721,7 +19750,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>700</v>
       </c>
@@ -19738,7 +19767,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>701</v>
       </c>
@@ -19755,7 +19784,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>702</v>
       </c>
@@ -19772,7 +19801,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>703</v>
       </c>
@@ -19789,7 +19818,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>704</v>
       </c>
@@ -19806,7 +19835,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>705</v>
       </c>
@@ -19823,7 +19852,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>706</v>
       </c>
@@ -19840,7 +19869,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>707</v>
       </c>
@@ -19857,7 +19886,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>708</v>
       </c>
@@ -19874,7 +19903,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>709</v>
       </c>
@@ -19891,7 +19920,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>710</v>
       </c>
@@ -19908,7 +19937,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>711</v>
       </c>
@@ -19925,7 +19954,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>712</v>
       </c>
@@ -19942,7 +19971,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>713</v>
       </c>
@@ -19959,7 +19988,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>714</v>
       </c>
@@ -19976,7 +20005,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>715</v>
       </c>
@@ -19993,7 +20022,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>716</v>
       </c>
@@ -20010,7 +20039,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>717</v>
       </c>
@@ -20027,7 +20056,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>718</v>
       </c>
@@ -20044,7 +20073,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>719</v>
       </c>
@@ -20061,7 +20090,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>720</v>
       </c>
@@ -20078,7 +20107,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>721</v>
       </c>
@@ -20095,7 +20124,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>722</v>
       </c>
@@ -20112,7 +20141,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>723</v>
       </c>
@@ -20129,7 +20158,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>724</v>
       </c>
@@ -20146,7 +20175,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>725</v>
       </c>
@@ -20163,7 +20192,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>726</v>
       </c>
@@ -20180,7 +20209,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>727</v>
       </c>
@@ -20197,7 +20226,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>728</v>
       </c>
@@ -20214,7 +20243,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>729</v>
       </c>
@@ -20231,7 +20260,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>730</v>
       </c>
@@ -20248,7 +20277,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>731</v>
       </c>
@@ -20265,7 +20294,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>732</v>
       </c>
@@ -20282,7 +20311,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>733</v>
       </c>
@@ -20299,7 +20328,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>734</v>
       </c>
@@ -20316,7 +20345,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>735</v>
       </c>
@@ -20333,7 +20362,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>736</v>
       </c>
@@ -20350,7 +20379,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>737</v>
       </c>
@@ -20367,7 +20396,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>738</v>
       </c>
@@ -20384,7 +20413,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>739</v>
       </c>
@@ -20401,7 +20430,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>740</v>
       </c>
@@ -20418,7 +20447,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>741</v>
       </c>
@@ -20435,7 +20464,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>742</v>
       </c>
@@ -20452,7 +20481,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>743</v>
       </c>
@@ -20469,7 +20498,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>744</v>
       </c>
@@ -20486,7 +20515,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>745</v>
       </c>
@@ -20503,7 +20532,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>746</v>
       </c>
@@ -20520,7 +20549,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>747</v>
       </c>
@@ -20537,7 +20566,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>748</v>
       </c>
@@ -20554,7 +20583,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>749</v>
       </c>
@@ -20571,7 +20600,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>750</v>
       </c>
@@ -20588,7 +20617,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>751</v>
       </c>
@@ -20605,7 +20634,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>752</v>
       </c>
@@ -20622,7 +20651,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>753</v>
       </c>
@@ -20639,7 +20668,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>754</v>
       </c>
@@ -20656,7 +20685,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>755</v>
       </c>
@@ -20673,7 +20702,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>756</v>
       </c>
@@ -20690,7 +20719,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>757</v>
       </c>
@@ -20707,7 +20736,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>758</v>
       </c>
@@ -20724,7 +20753,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>759</v>
       </c>
@@ -20741,7 +20770,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>760</v>
       </c>
@@ -20758,7 +20787,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>761</v>
       </c>
@@ -20775,7 +20804,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>762</v>
       </c>
@@ -20792,7 +20821,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>763</v>
       </c>
@@ -20809,7 +20838,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>764</v>
       </c>
@@ -20826,7 +20855,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>765</v>
       </c>
@@ -20843,7 +20872,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>766</v>
       </c>
@@ -20860,7 +20889,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>767</v>
       </c>
@@ -20877,7 +20906,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>768</v>
       </c>
@@ -20894,7 +20923,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>769</v>
       </c>
@@ -20911,7 +20940,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>770</v>
       </c>
@@ -20928,7 +20957,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>771</v>
       </c>
@@ -20945,7 +20974,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>772</v>
       </c>
@@ -20962,7 +20991,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>773</v>
       </c>
@@ -20979,7 +21008,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>774</v>
       </c>
@@ -20996,7 +21025,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>775</v>
       </c>
@@ -21013,7 +21042,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>776</v>
       </c>
@@ -21030,7 +21059,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>777</v>
       </c>
@@ -21047,7 +21076,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>778</v>
       </c>
@@ -21064,7 +21093,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>779</v>
       </c>
@@ -21081,7 +21110,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>780</v>
       </c>
@@ -21098,7 +21127,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>781</v>
       </c>
@@ -21115,7 +21144,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>782</v>
       </c>
@@ -21132,7 +21161,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>783</v>
       </c>
@@ -21149,7 +21178,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>784</v>
       </c>
@@ -21166,7 +21195,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>785</v>
       </c>
@@ -21183,7 +21212,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>786</v>
       </c>
@@ -21200,7 +21229,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>787</v>
       </c>
@@ -21217,7 +21246,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>788</v>
       </c>
@@ -21234,7 +21263,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>789</v>
       </c>
@@ -21251,7 +21280,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>790</v>
       </c>
@@ -21268,7 +21297,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>791</v>
       </c>
@@ -21285,7 +21314,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>792</v>
       </c>
@@ -21302,7 +21331,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>793</v>
       </c>
@@ -21319,7 +21348,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>794</v>
       </c>
@@ -21336,7 +21365,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>795</v>
       </c>
@@ -21353,7 +21382,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>796</v>
       </c>
@@ -21370,7 +21399,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>797</v>
       </c>
@@ -21387,7 +21416,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>798</v>
       </c>
@@ -21404,7 +21433,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>799</v>
       </c>
@@ -21421,7 +21450,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>800</v>
       </c>
@@ -21438,7 +21467,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>801</v>
       </c>
@@ -21455,7 +21484,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>802</v>
       </c>
@@ -21472,7 +21501,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>803</v>
       </c>
@@ -21489,7 +21518,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>804</v>
       </c>
@@ -21506,7 +21535,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>805</v>
       </c>
@@ -21523,7 +21552,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>806</v>
       </c>
@@ -21540,7 +21569,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>807</v>
       </c>
@@ -21557,7 +21586,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>808</v>
       </c>
@@ -21574,7 +21603,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>809</v>
       </c>
@@ -21591,7 +21620,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>810</v>
       </c>
@@ -21608,7 +21637,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>811</v>
       </c>
@@ -21625,7 +21654,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>812</v>
       </c>
@@ -21642,7 +21671,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>813</v>
       </c>
@@ -21659,7 +21688,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>814</v>
       </c>
@@ -21676,7 +21705,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>815</v>
       </c>
@@ -21693,7 +21722,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>816</v>
       </c>
@@ -21710,7 +21739,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>817</v>
       </c>
@@ -21727,7 +21756,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>818</v>
       </c>
@@ -21744,7 +21773,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>819</v>
       </c>
@@ -21761,7 +21790,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>820</v>
       </c>
@@ -21778,7 +21807,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>821</v>
       </c>
@@ -21795,7 +21824,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>822</v>
       </c>
@@ -21812,7 +21841,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>823</v>
       </c>
@@ -21829,7 +21858,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>824</v>
       </c>
@@ -21846,7 +21875,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>825</v>
       </c>
@@ -21863,7 +21892,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>826</v>
       </c>
